--- a/Running projects/Food Court North Walk/321 Invoice for supply of Fire Material food courts.xlsx
+++ b/Running projects/Food Court North Walk/321 Invoice for supply of Fire Material food courts.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AD6279-2D4C-4B12-99A9-D9A1108594A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B6F4B6-274A-4A12-865B-C09681A88638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>S. #</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Supply of Fire Fighting material for Food Court - The North Walk Shopping Mall</t>
+  </si>
+  <si>
+    <t>FINAL SUPPLIED</t>
   </si>
 </sst>
 </file>
@@ -133,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +250,15 @@
     <font>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -325,15 +337,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -348,12 +360,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -369,19 +381,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -405,6 +417,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -923,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -982,7 +997,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+    </row>
     <row r="11" spans="1:6" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
         <v>19</v>
@@ -1324,11 +1348,12 @@
       <c r="I37" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="1.25" bottom="0" header="0.3" footer="0.3"/>

--- a/Running projects/Food Court North Walk/321 Invoice for supply of Fire Material food courts.xlsx
+++ b/Running projects/Food Court North Walk/321 Invoice for supply of Fire Material food courts.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B6F4B6-274A-4A12-865B-C09681A88638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183021EB-BF09-4EE7-9D4C-B73E6441FD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>S. #</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>Supply of Fire Fighting material for Food Court - The North Walk Shopping Mall</t>
-  </si>
-  <si>
-    <t>FINAL SUPPLIED</t>
   </si>
 </sst>
 </file>
@@ -607,7 +604,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>369335</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>64366</xdr:rowOff>
+      <xdr:rowOff>64365</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -938,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -968,7 +965,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="27">
-        <v>45187</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -997,10 +994,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
-        <v>36</v>
-      </c>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
